--- a/biology/Botanique/Dibaeis/Dibaeis.xlsx
+++ b/biology/Botanique/Dibaeis/Dibaeis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dibaeis est un genre de lichens de la famille des Icmadophilaceae.
-Selon Index Fungorum                                      (2 novembre 2013)[1] et MycoBank                                            (2 novembre 2013)[2], le nom de genre Verrucaria Scop., 1777 n’est pas valide et est remplacé par Dibaeis. 
+Selon Index Fungorum                                      (2 novembre 2013) et MycoBank                                            (2 novembre 2013), le nom de genre Verrucaria Scop., 1777 n’est pas valide et est remplacé par Dibaeis. 
 En revanche, Verrucaria Schrad., 1794 est bien un nom valide. 
 </t>
         </is>
@@ -513,14 +525,16 @@
           <t>Liste d'espèces du genre Dibaeis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (2 novembre 2013)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (2 novembre 2013) :
 Dibaeis absoluta
 Dibaeis arcuata
 Dibaeis baeomyces
 Dibaeis sorediata
-Selon Index Fungorum                                      (2 novembre 2013)[1] :
+Selon Index Fungorum                                      (2 novembre 2013) :
 Dibaeis absoluta (Tuck.) Kalb &amp; Gierl 1993
 Dibaeis arcuata (Stirt.) Kalb &amp; Gierl 1993
 Dibaeis baeomyces (L. f.) Rambold &amp; Hertel 1993
@@ -535,7 +549,7 @@
 Dibaeis stipitata Kalb &amp; Gierl 1993
 Dibaeis umbrelliformis Kalb &amp; Gierl 1993
 Dibaeis weberi (J.W. Thomson) Kalb &amp; Gierl 1993
-Selon NCBI  (2 novembre 2013)[4] :
+Selon NCBI  (2 novembre 2013) :
 Dibaeis absoluta
 Dibaeis baeomyces</t>
         </is>
